--- a/lotterien.xlsx
+++ b/lotterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annas\OneDrive\Documents\Research\Stress and risk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd3767717d2e6966/Arbeit (offen)/oTree Stress Pretest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39F7A8-8537-4D92-9E00-DBD59031321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Our lotteries" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -171,7 +173,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,16 +395,16 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="22.08984375" customWidth="1"/>
-    <col min="10" max="12" width="18.08984375" customWidth="1"/>
+    <col min="7" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -418,7 +420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="86.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1704,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>0.75</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0.75</v>
       </c>
@@ -1848,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>0.9</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0.9</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0.9</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0.95</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.95</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>0.95</v>
       </c>
@@ -2280,13 +2282,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="33" spans="2:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2305,7 +2307,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>

--- a/lotterien.xlsx
+++ b/lotterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd3767717d2e6966/Arbeit (offen)/oTree Stress Pretest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39F7A8-8537-4D92-9E00-DBD59031321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0F39F7A8-8537-4D92-9E00-DBD59031321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F7725A-23D6-403A-B1A6-44CAECBF0CEF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12804" yWindow="624" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Our lotteries" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f>C6+E6</f>
         <v>50</v>
       </c>
       <c r="N6" s="1">
@@ -2335,6 +2335,281 @@
         <v>9</v>
       </c>
     </row>
+    <row r="47" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="11:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
